--- a/uploads/delete_scholarship.xlsx
+++ b/uploads/delete_scholarship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60698B4A-0152-478E-BFAA-5104C06EB060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0DF140-000A-4EE3-A31A-5CC3E7602592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,23 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s10350134</t>
+    <t>s10350135</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s10350135</t>
-  </si>
-  <si>
-    <t>s10350136</t>
-  </si>
-  <si>
     <t>s10350137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -370,13 +365,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
@@ -399,15 +393,10 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/uploads/delete_scholarship.xlsx
+++ b/uploads/delete_scholarship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0DF140-000A-4EE3-A31A-5CC3E7602592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D052E6F0-37AE-4F82-83D1-BC23E6A70778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,25 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s10350135</t>
+    <t>s10350134</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s10350137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>s10350136</t>
+  </si>
+  <si>
+    <t>S11350150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +59,12 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,9 +87,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -362,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -370,7 +379,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
@@ -386,17 +396,17 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/uploads/delete_scholarship.xlsx
+++ b/uploads/delete_scholarship.xlsx
@@ -1,44 +1,435 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rain\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D052E6F0-37AE-4F82-83D1-BC23E6A70778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B59241-E343-4892-BAE0-7B77DF7E2AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{AFBDA539-48B8-4950-BB8A-8BFB370E7D09}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>學號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s10350134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s10350136</t>
-  </si>
-  <si>
-    <t>S11350150</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>產標</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>63140401-05-530</t>
+  </si>
+  <si>
+    <t>63140401-05-531</t>
+  </si>
+  <si>
+    <t>63140401-05-532</t>
+  </si>
+  <si>
+    <t>63140401-05-533</t>
+  </si>
+  <si>
+    <t>63140401-05-534</t>
+  </si>
+  <si>
+    <t>63140401-05-535</t>
+  </si>
+  <si>
+    <t>63140401-05-536</t>
+  </si>
+  <si>
+    <t>63140401-05-537</t>
+  </si>
+  <si>
+    <t>63140401-05-538</t>
+  </si>
+  <si>
+    <t>63140401-05-540</t>
+  </si>
+  <si>
+    <t>63140401-05-542</t>
+  </si>
+  <si>
+    <t>63140401-05-543</t>
+  </si>
+  <si>
+    <t>63140401-05-544</t>
+  </si>
+  <si>
+    <t>63140401-05-545</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>7-9</t>
+  </si>
+  <si>
+    <t>7-10</t>
+  </si>
+  <si>
+    <t>63140401-05-546</t>
+  </si>
+  <si>
+    <t>63140401-05-547</t>
+  </si>
+  <si>
+    <t>63140401-05-548</t>
+  </si>
+  <si>
+    <t>63140401-05-549</t>
+  </si>
+  <si>
+    <t>63140401-05-550</t>
+  </si>
+  <si>
+    <t>63140401-05-551</t>
+  </si>
+  <si>
+    <t>63140401-05-552</t>
+  </si>
+  <si>
+    <t>63140401-05-553</t>
+  </si>
+  <si>
+    <t>63140401-05-554</t>
+  </si>
+  <si>
+    <t>63140401-05-555</t>
+  </si>
+  <si>
+    <t>63140401-05-556</t>
+  </si>
+  <si>
+    <t>63140401-05-557</t>
+  </si>
+  <si>
+    <t>63140401-05-558</t>
+  </si>
+  <si>
+    <t>63140401-05-559</t>
+  </si>
+  <si>
+    <t>63140401-05-560</t>
+  </si>
+  <si>
+    <t>63140401-05-561</t>
+  </si>
+  <si>
+    <t>63140401-05-562</t>
+  </si>
+  <si>
+    <t>63140401-05-563</t>
+  </si>
+  <si>
+    <t>63140401-05-564</t>
+  </si>
+  <si>
+    <t>63140401-05-565</t>
+  </si>
+  <si>
+    <t>63140401-05-566</t>
+  </si>
+  <si>
+    <t>63140401-05-567</t>
+  </si>
+  <si>
+    <t>63140401-05-568</t>
+  </si>
+  <si>
+    <t>63140401-05-569</t>
+  </si>
+  <si>
+    <t>63140401-05-570</t>
+  </si>
+  <si>
+    <t>63140401-05-571</t>
+  </si>
+  <si>
+    <t>63140401-05-572</t>
+  </si>
+  <si>
+    <t>63140401-05-573</t>
+  </si>
+  <si>
+    <t>63140401-05-574</t>
+  </si>
+  <si>
+    <t>63140401-05-575</t>
+  </si>
+  <si>
+    <t>63140401-05-576</t>
+  </si>
+  <si>
+    <t>63140401-05-577</t>
+  </si>
+  <si>
+    <t>63140401-05-578</t>
+  </si>
+  <si>
+    <t>63140401-05-579</t>
+  </si>
+  <si>
+    <t>63140401-05-580</t>
+  </si>
+  <si>
+    <t>63140401-05-581</t>
+  </si>
+  <si>
+    <t>63140401-05-582</t>
+  </si>
+  <si>
+    <t>63140401-05-583</t>
+  </si>
+  <si>
+    <t>63140401-05-584</t>
+  </si>
+  <si>
+    <t>63140401-05-585</t>
+  </si>
+  <si>
+    <t>63140401-05-586</t>
+  </si>
+  <si>
+    <t>63140401-05-587</t>
+  </si>
+  <si>
+    <t>63140401-05-588</t>
+  </si>
+  <si>
+    <t>63140401-05-589</t>
+  </si>
+  <si>
+    <t>63140401-05-590</t>
+  </si>
+  <si>
+    <t>63140401-05-592</t>
+  </si>
+  <si>
+    <t>63140401-05-593</t>
+  </si>
+  <si>
+    <t>63140401-05-594</t>
+  </si>
+  <si>
+    <t>63140401-05-595</t>
+  </si>
+  <si>
+    <t>63140401-05-596</t>
   </si>
 </sst>
 </file>
@@ -47,24 +438,24 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,8 +480,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -109,7 +500,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -125,7 +516,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -137,7 +528,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -154,7 +545,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -184,12 +575,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -219,6 +627,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,46 +795,561 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55B1871-FA81-45B5-9D6A-7DB1E4297C61}">
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C65" sqref="C2:C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>